--- a/HackerCode/file-data/demo-data.xlsx
+++ b/HackerCode/file-data/demo-data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="25">
   <si>
     <t xml:space="preserve">SET</t>
   </si>
@@ -46,10 +46,7 @@
     <t xml:space="preserve">ANSWER</t>
   </si>
   <si>
-    <t xml:space="preserve">SET-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPTITUDE</t>
+    <t xml:space="preserve">Aptitude</t>
   </si>
   <si>
     <t xml:space="preserve">TEXT</t>
@@ -61,7 +58,7 @@
     <t xml:space="preserve">1,2,3,4</t>
   </si>
   <si>
-    <t xml:space="preserve">SET-2</t>
+    <t xml:space="preserve">Logical</t>
   </si>
   <si>
     <t xml:space="preserve">Excluding stoppages, the speed of a bus is 54 kmph and including stoppages, it is 45 kmph. For how many minutes does the bus stop per hour?"</t>
@@ -88,7 +85,7 @@
     <t xml:space="preserve">4,5,6,7</t>
   </si>
   <si>
-    <t xml:space="preserve">SET-3</t>
+    <t xml:space="preserve">Reasoning</t>
   </si>
   <si>
     <t xml:space="preserve">REASONING</t>
@@ -104,8 +101,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -181,12 +179,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -214,22 +216,22 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="60.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="24.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="24.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.54"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -255,18 +257,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>11</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>5</v>
@@ -275,24 +277,24 @@
         <v>1</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>14</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>5</v>
@@ -300,25 +302,25 @@
       <c r="F3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>15</v>
+      <c r="G3" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>17</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>4</v>
@@ -327,24 +329,24 @@
         <v>1</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>56</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>20</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>5</v>
@@ -353,217 +355,217 @@
         <v>3</v>
       </c>
       <c r="G5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="B9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="2" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="C12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="2" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="C13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="E13" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="2" t="n">
+      <c r="H13" s="3" t="n">
         <v>5</v>
       </c>
     </row>
